--- a/Outputs/3. Prosumer percentage/Output Files/90/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/90/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359325.316981497</v>
+        <v>1345651.209777881</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760741</v>
+        <v>698313.6830760738</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>127.6603223348121</v>
       </c>
       <c r="Y2" t="n">
-        <v>397.188167166915</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>50.94722270604733</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82.88192419053995</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -901,16 +901,16 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>386.8406937376553</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>340.4595426762225</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W7" t="n">
-        <v>207.085981278626</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1138,22 +1138,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>239.8092397409859</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>127.6300872882253</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>149.4750701927086</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>71.26698920462526</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>209.6663027322064</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>162.499532798438</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1824,7 +1824,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>210.7924340362403</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>80.96206012172709</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>26.64950060226561</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>78.27582229143013</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>157.6868814224731</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.30362264056416</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2724,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>129.5585192392022</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2763,25 +2763,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>76.34947650094</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>31.26920727132341</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>159.2528744115193</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>110.5098027557608</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.1330368159337</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>49.87597792716904</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>73.54588694340036</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>124.2290557831218</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>126.2890348386856</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4194,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>107.4717542800519</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>1674.816201625927</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
         <v>377.2634748317415</v>
@@ -4330,52 +4330,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>879.7031186113101</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
         <v>1302.520320645319</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.3071558651727</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="C4" t="n">
-        <v>701.3071558651727</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="D4" t="n">
-        <v>537.9903829919434</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E4" t="n">
-        <v>371.7821771447969</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
-        <v>371.7821771447969</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4488,13 +4488,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>927.6499241754307</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.3071558651727</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.3165321415871</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>936.4562061952913</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>917.2039894206956</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>895.2674536089572</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>470.1432717983574</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4603,16 +4603,16 @@
         <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.141357229671</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="W5" t="n">
-        <v>1388.141357229671</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>976.4213583974188</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>975.1244923927131</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4761,7 +4761,7 @@
         <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1896.161171757578</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
         <v>1686.983412890279</v>
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.282507137358</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.422181191062</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.129560376062</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>712.1526205239198</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>691.0688427537241</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>286.7297803431727</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>1696.494830002562</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>2095.99197237326</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.066928185038</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.387333393189</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1600.090467388484</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>756.3555336978366</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.1411871531071</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>511.1411871531071</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1562677665327</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>360.1562677665327</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
+        <v>144.2667933089716</v>
+      </c>
+      <c r="I10" t="n">
         <v>44.49822504924753</v>
       </c>
-      <c r="I10" t="n">
-        <v>44.49822504924814</v>
-      </c>
       <c r="J10" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="R10" t="n">
         <v>2224.911252462377</v>
       </c>
-      <c r="R10" t="n">
-        <v>2177.87263914955</v>
-      </c>
       <c r="S10" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754307</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.3071558651727</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5044,13 +5044,13 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1178.188711671385</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>1872.495398835621</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M11" t="n">
-        <v>2876.781500254679</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
         <v>2876.781500254679</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>944.322395923808</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M12" t="n">
-        <v>944.322395923808</v>
+        <v>1110.547548336299</v>
       </c>
       <c r="N12" t="n">
-        <v>944.322395923808</v>
+        <v>1110.547548336299</v>
       </c>
       <c r="O12" t="n">
-        <v>944.322395923808</v>
+        <v>1110.547548336299</v>
       </c>
       <c r="P12" t="n">
-        <v>1660.520112962306</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.0539823390661</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C13" t="n">
-        <v>410.0814192179821</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D13" t="n">
-        <v>410.0814192179821</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E13" t="n">
-        <v>243.8732133708357</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F13" t="n">
-        <v>243.8732133708357</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G13" t="n">
-        <v>243.8732133708357</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1851.53216732448</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.347718824785</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="V13" t="n">
-        <v>1289.636251432814</v>
+        <v>1755.439157126047</v>
       </c>
       <c r="W13" t="n">
-        <v>1014.783847605327</v>
+        <v>1480.58675329856</v>
       </c>
       <c r="X13" t="n">
-        <v>772.2199510511318</v>
+        <v>1238.022856744365</v>
       </c>
       <c r="Y13" t="n">
-        <v>772.2199510511318</v>
+        <v>1011.680088434107</v>
       </c>
     </row>
     <row r="14">
@@ -5281,22 +5281,22 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>1178.188711671385</v>
+        <v>1130.984051391754</v>
       </c>
       <c r="L14" t="n">
-        <v>2107.813759290661</v>
+        <v>2060.609099011031</v>
       </c>
       <c r="M14" t="n">
-        <v>3112.09986070972</v>
+        <v>3064.895200430089</v>
       </c>
       <c r="N14" t="n">
-        <v>3112.09986070972</v>
+        <v>4041.14625891679</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405491</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q14" t="n">
         <v>4886.290909067602</v>
@@ -5308,22 +5308,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>1208.573242241487</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.573242241487</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N15" t="n">
-        <v>1208.573242241487</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1208.573242241487</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.0720598455175</v>
+        <v>610.1194880726601</v>
       </c>
       <c r="C16" t="n">
-        <v>671.0994967244335</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="D16" t="n">
-        <v>507.7827238512042</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="E16" t="n">
-        <v>343.6417816305598</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5463,25 +5463,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2110.354924811253</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1867.015577037153</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>1586.831128537457</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>1586.831128537457</v>
+        <v>1544.044525476666</v>
       </c>
       <c r="W16" t="n">
-        <v>1311.97872470997</v>
+        <v>1269.192121649178</v>
       </c>
       <c r="X16" t="n">
-        <v>1069.414828155775</v>
+        <v>1026.628225094984</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.0720598455175</v>
+        <v>800.2854567847257</v>
       </c>
     </row>
     <row r="17">
@@ -5524,16 +5524,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4667.749558545297</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5615,7 +5615,7 @@
         <v>1470.761792120201</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C19" t="n">
-        <v>516.5477476675582</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5477476675582</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>350.3395418204117</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5779,25 +5779,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C22" t="n">
-        <v>437.4812605044974</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>261.5823916103468</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>261.5823916103468</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2398.817321261059</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4928.4923090565</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6068,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N24" t="n">
-        <v>939.1015214887346</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.483482374059</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>268.510919252975</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6177,22 +6177,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6232,22 +6232,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>834.4360146577217</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>662.4634515366376</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>499.1466786634084</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>332.9384728162619</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>332.9384728162619</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>332.9384728162619</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
         <v>202.0712816655526</v>
@@ -6411,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1953.965660114159</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1679.113256286672</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1024.601983369787</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6469,16 +6469,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>991.7839914173002</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1707.981708455798</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>537.3606176598659</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>365.3880545387819</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>953.8693546821894</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>727.5265863719314</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>964.4851292537592</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1680.682846292257</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>601.2341827829796</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>601.2341827829796</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>601.2341827829796</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>435.0259769358331</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>263.1642027103935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1260.306816359498</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1017.742919805303</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>791.4001514950452</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1007.532766690843</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
         <v>1007.532766690843</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>305.3113489363686</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>531.6450242445497</v>
+        <v>823.7398882488801</v>
       </c>
       <c r="C37" t="n">
-        <v>531.6450242445497</v>
+        <v>651.7673251277961</v>
       </c>
       <c r="D37" t="n">
-        <v>368.3282513713204</v>
+        <v>651.7673251277961</v>
       </c>
       <c r="E37" t="n">
-        <v>368.3282513713204</v>
+        <v>485.5591192806496</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>313.69734505521</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>313.69734505521</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1240.248625271204</v>
       </c>
       <c r="Y37" t="n">
-        <v>531.6450242445497</v>
+        <v>1013.905856960946</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7177,25 +7177,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1007.532766690843</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,13 +7210,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>612.3940204581201</v>
+        <v>496.5168264363612</v>
       </c>
       <c r="C40" t="n">
-        <v>440.421457337036</v>
+        <v>324.5442633152772</v>
       </c>
       <c r="D40" t="n">
-        <v>440.421457337036</v>
+        <v>324.5442633152772</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7341,43 +7341,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S40" t="n">
-        <v>2161.388352815827</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="T40" t="n">
-        <v>1918.049005041727</v>
+        <v>1992.337779732034</v>
       </c>
       <c r="U40" t="n">
-        <v>1637.864556542031</v>
+        <v>1712.153331232338</v>
       </c>
       <c r="V40" t="n">
-        <v>1356.15308915006</v>
+        <v>1430.441863840367</v>
       </c>
       <c r="W40" t="n">
-        <v>1081.300685322573</v>
+        <v>1155.58946001288</v>
       </c>
       <c r="X40" t="n">
-        <v>838.736788768378</v>
+        <v>913.0255634586848</v>
       </c>
       <c r="Y40" t="n">
-        <v>612.3940204581201</v>
+        <v>686.6827951484269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
         <v>134.9738161355189</v>
@@ -7414,13 +7414,13 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767978</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
         <v>2876.781500254679</v>
@@ -7447,16 +7447,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>3650.220489075254</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>3650.220489075254</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>3650.220489075254</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>3650.220489075254</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>4539.701767086725</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3724.175546376859</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>3552.202983255775</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>3388.886210382545</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>3388.886210382545</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F43" t="n">
-        <v>3217.024436157106</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G43" t="n">
-        <v>3050.767466451338</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>4713.469282862578</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>4713.469282862578</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>4431.757815470606</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>4156.905411643119</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>3914.341515088924</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>3914.341515088924</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7651,13 +7651,13 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.530441767978</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
         <v>2876.781500254679</v>
@@ -7675,25 +7675,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3785.644539937336</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>4622.443348020242</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>4622.443348020242</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>4921.827933864802</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O45" t="n">
-        <v>4921.827933864802</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P45" t="n">
-        <v>4921.827933864802</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>4921.827933864802</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3410.833390634469</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C46" t="n">
-        <v>3238.860827513385</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="D46" t="n">
-        <v>3238.860827513385</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="E46" t="n">
-        <v>3238.860827513385</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="F46" t="n">
-        <v>3066.999053287946</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>4263.149786882017</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V46" t="n">
-        <v>4154.592459326409</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W46" t="n">
-        <v>3879.740055498922</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X46" t="n">
-        <v>3637.176158944727</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y46" t="n">
-        <v>3410.833390634469</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>462.4589018454972</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
@@ -8227,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>176.6411400339852</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,7 +8315,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
@@ -8461,16 +8461,16 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>110.3411813754878</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>183.4310877314655</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>739.6319284571039</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8777,7 +8777,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>198.5228364460678</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8789,10 +8789,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.4990206093763</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>710.8187903865954</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,16 +8938,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>653.3771105638739</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9005,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>729.034814152316</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>384.5745552399217</v>
+        <v>467.4223432042684</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9482,28 +9482,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3998461757263</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,22 +9716,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>453.1961680556779</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9740,7 +9740,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>967.5075822902267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9898,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>851.5983435449576</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9968,13 +9968,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>502.8820865988767</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10117,19 +10117,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10205,13 +10205,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>502.8820865988767</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.806266097605</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10351,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>502.8820865988767</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>172.5330863792592</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>225.6703421419597</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10679,13 +10679,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>502.8820865988767</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10825,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>583.8722719747271</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>453.1210588457837</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>502.8820865988767</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10925,7 +10925,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>482.0566840416745</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11153,10 +11153,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11378,28 +11378,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7517007838046</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>116.9973198203197</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>31.23965156415264</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>2.046590990237007</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>68.10191868181113</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>89.18109636145809</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.2448521157858</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>91.97701519844301</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>6.907518586237103</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>12.79978656772496</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>163.7887810877129</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.8690503173295</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.341525597190866</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>31.84850305116632</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.9463038112217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>114.6701458615059</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>94.88781006265613</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.91410070006343</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>16.06927096824151</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>66.44073542471774</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>171.4225984379995</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651331.0624171942</v>
+        <v>651331.0624171941</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661447.136964692</v>
+        <v>661447.1369646922</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661447.1369646919</v>
+        <v>661447.1369646922</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651331.062417194</v>
+        <v>651331.0624171941</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651331.062417194</v>
+        <v>651331.0624171941</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
+        <v>373569.1848794166</v>
+      </c>
+      <c r="F2" t="n">
         <v>373569.1848794165</v>
       </c>
-      <c r="F2" t="n">
-        <v>373569.1848794166</v>
-      </c>
       <c r="G2" t="n">
-        <v>379370.5221177771</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="H2" t="n">
-        <v>379370.5221177771</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="I2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="J2" t="n">
         <v>379370.522117777</v>
       </c>
       <c r="K2" t="n">
+        <v>379370.522117777</v>
+      </c>
+      <c r="L2" t="n">
+        <v>379370.522117777</v>
+      </c>
+      <c r="M2" t="n">
         <v>379370.5221177769</v>
       </c>
-      <c r="L2" t="n">
-        <v>379370.5221177769</v>
-      </c>
-      <c r="M2" t="n">
-        <v>379370.5221177771</v>
-      </c>
       <c r="N2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="O2" t="n">
+        <v>373569.1848794166</v>
+      </c>
+      <c r="P2" t="n">
         <v>373569.1848794165</v>
-      </c>
-      <c r="P2" t="n">
-        <v>373569.1848794166</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171405.7189264355</v>
+        <v>172235.4739682424</v>
       </c>
       <c r="C4" t="n">
-        <v>171405.7189264355</v>
+        <v>172235.4739682424</v>
       </c>
       <c r="D4" t="n">
-        <v>171405.7189264354</v>
+        <v>172235.4739682424</v>
       </c>
       <c r="E4" t="n">
-        <v>52935.76630093033</v>
+        <v>54292.30340271725</v>
       </c>
       <c r="F4" t="n">
-        <v>52935.76630093032</v>
+        <v>54292.30340271726</v>
       </c>
       <c r="G4" t="n">
-        <v>53759.91005790851</v>
+        <v>55137.54327225792</v>
       </c>
       <c r="H4" t="n">
-        <v>53759.91005790851</v>
+        <v>55137.54327225792</v>
       </c>
       <c r="I4" t="n">
-        <v>53759.91005790851</v>
+        <v>55137.54327225791</v>
       </c>
       <c r="J4" t="n">
-        <v>53759.9100579085</v>
+        <v>55137.54327225793</v>
       </c>
       <c r="K4" t="n">
-        <v>53759.91005790851</v>
+        <v>55137.54327225792</v>
       </c>
       <c r="L4" t="n">
-        <v>53759.91005790851</v>
+        <v>55137.54327225793</v>
       </c>
       <c r="M4" t="n">
-        <v>53759.91005790851</v>
+        <v>55137.54327225792</v>
       </c>
       <c r="N4" t="n">
-        <v>53759.91005790852</v>
+        <v>55137.54327225791</v>
       </c>
       <c r="O4" t="n">
-        <v>52935.76630093032</v>
+        <v>54292.30340271726</v>
       </c>
       <c r="P4" t="n">
-        <v>52935.76630093033</v>
+        <v>54292.30340271725</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32107.90247106575</v>
+        <v>-32937.65751287265</v>
       </c>
       <c r="C6" t="n">
-        <v>154296.8309436715</v>
+        <v>153467.0759018646</v>
       </c>
       <c r="D6" t="n">
-        <v>154296.8309436715</v>
+        <v>153467.0759018646</v>
       </c>
       <c r="E6" t="n">
-        <v>37142.65285389283</v>
+        <v>35060.94478810156</v>
       </c>
       <c r="F6" t="n">
-        <v>244574.9404704538</v>
+        <v>242493.2324046624</v>
       </c>
       <c r="G6" t="n">
-        <v>240234.9277879574</v>
+        <v>238346.987951765</v>
       </c>
       <c r="H6" t="n">
-        <v>247860.5498714389</v>
+        <v>245972.6100352464</v>
       </c>
       <c r="I6" t="n">
-        <v>247860.5498714386</v>
+        <v>245972.6100352465</v>
       </c>
       <c r="J6" t="n">
-        <v>102326.8799366223</v>
+        <v>100438.9401004299</v>
       </c>
       <c r="K6" t="n">
-        <v>247860.5498714386</v>
+        <v>245972.6100352465</v>
       </c>
       <c r="L6" t="n">
-        <v>247860.5498714386</v>
+        <v>245972.6100352464</v>
       </c>
       <c r="M6" t="n">
-        <v>74730.05866579934</v>
+        <v>72842.11882960684</v>
       </c>
       <c r="N6" t="n">
-        <v>247860.5498714387</v>
+        <v>245972.6100352465</v>
       </c>
       <c r="O6" t="n">
-        <v>244574.9404704538</v>
+        <v>242493.2324046625</v>
       </c>
       <c r="P6" t="n">
-        <v>244574.9404704538</v>
+        <v>242493.2324046624</v>
       </c>
     </row>
   </sheetData>
@@ -27381,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>279.9424765091181</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.095730177743576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>137.3170863188977</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>81.71247581817023</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13.45497804879051</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>13.45497804879051</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27833,10 +27833,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W7" t="n">
-        <v>65.01789851058615</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>55.08045499971962</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>226.2844334367877</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.20853495178841</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-7.070398229316078e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>440.0596680121639</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>158.2737632597931</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>155.2981118204435</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
@@ -35181,16 +35181,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>73.06155854104179</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.319886024481</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>175.4260559337399</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.7519823203978</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>675.0541895917861</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,16 +35658,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>615.9861512078497</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>361.8275169509432</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2279564535041</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>430.0242783334557</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>930.2279594557806</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36618,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>829.083256830728</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>205.0592278086265</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>149.7860480902807</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>205.0592278086264</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>548.1076711799178</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>430.0242783334557</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366207</v>
       </c>
       <c r="N40" t="n">
         <v>381.3045564404402</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>459.6574502083412</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>302.4086725702629</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
